--- a/momstore_data/UpdateData/update_customer_data.xlsx
+++ b/momstore_data/UpdateData/update_customer_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">post_code</t>
   </si>
   <si>
+    <t xml:space="preserve">signin_title</t>
+  </si>
+  <si>
     <t xml:space="preserve">vinayms</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign In with Email</t>
   </si>
   <si>
     <t xml:space="preserve">sanju</t>
@@ -243,10 +249,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -300,28 +306,31 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>278394874</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>1</v>
@@ -330,16 +339,19 @@
         <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>549</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="n">
         <v>560070</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -347,22 +359,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>278394774</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
@@ -371,36 +383,39 @@
         <v>412</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>549</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="n">
         <v>560021</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>8745832743</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>1</v>
@@ -409,16 +424,19 @@
         <v>432</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>549</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>560032</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
